--- a/ML/ML_files/2014_MAY.xlsx
+++ b/ML/ML_files/2014_MAY.xlsx
@@ -662,7 +662,7 @@
         <v>18693</v>
       </c>
       <c r="D6">
-        <v>120.9597175413256</v>
+        <v>120.9597175413257</v>
       </c>
       <c r="E6">
         <v>10150</v>
@@ -901,7 +901,7 @@
         <v>285419</v>
       </c>
       <c r="D11">
-        <v>62.90856600296406</v>
+        <v>62.90856600296407</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>12139</v>
       </c>
       <c r="D26">
-        <v>333.7754345497981</v>
+        <v>333.7754345497982</v>
       </c>
       <c r="E26">
         <v>10607</v>
@@ -2562,7 +2562,7 @@
         <v>338904</v>
       </c>
       <c r="J46">
-        <v>98.39039964119632</v>
+        <v>98.39039964119633</v>
       </c>
       <c r="K46">
         <v>97485</v>
@@ -2700,7 +2700,7 @@
         <v>29972</v>
       </c>
       <c r="D49">
-        <v>173.0214867209395</v>
+        <v>173.0214867209396</v>
       </c>
       <c r="E49">
         <v>16871</v>
@@ -3688,7 +3688,7 @@
         <v>17458</v>
       </c>
       <c r="J71">
-        <v>98.57944781761942</v>
+        <v>98.57944781761943</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -3924,7 +3924,7 @@
         <v>7595</v>
       </c>
       <c r="G76">
-        <v>170.717577353522</v>
+        <v>170.7175773535221</v>
       </c>
       <c r="H76">
         <v>37698</v>
@@ -4669,7 +4669,7 @@
         <v>3357034</v>
       </c>
       <c r="G92">
-        <v>68.7803281110647</v>
+        <v>68.78032811106471</v>
       </c>
       <c r="H92">
         <v>12449201</v>
@@ -5618,7 +5618,7 @@
         <v>432718</v>
       </c>
       <c r="G111">
-        <v>274.8196284878373</v>
+        <v>274.8196284878374</v>
       </c>
       <c r="H111">
         <v>3383258</v>
@@ -5661,7 +5661,7 @@
         <v>471161</v>
       </c>
       <c r="D112">
-        <v>68.8531096589064</v>
+        <v>68.85310965890641</v>
       </c>
       <c r="E112">
         <v>31712</v>
@@ -5897,7 +5897,7 @@
         <v>788071</v>
       </c>
       <c r="D117">
-        <v>337.883008003086</v>
+        <v>337.8830080030861</v>
       </c>
       <c r="E117">
         <v>702541</v>
@@ -6111,7 +6111,7 @@
         <v>713260</v>
       </c>
       <c r="J121">
-        <v>148.5029302077783</v>
+        <v>148.5029302077784</v>
       </c>
       <c r="K121">
         <v>0</v>
@@ -6344,7 +6344,7 @@
         <v>178577</v>
       </c>
       <c r="G126">
-        <v>102.0092173124198</v>
+        <v>102.0092173124199</v>
       </c>
       <c r="H126">
         <v>1109735</v>
@@ -6491,7 +6491,7 @@
         <v>725774</v>
       </c>
       <c r="D129">
-        <v>87.80681038449985</v>
+        <v>87.80681038449986</v>
       </c>
       <c r="E129">
         <v>220710</v>
@@ -6671,7 +6671,7 @@
         <v>322361</v>
       </c>
       <c r="M132">
-        <v>72.96292045253612</v>
+        <v>72.96292045253613</v>
       </c>
       <c r="N132">
         <v>71</v>
@@ -7106,7 +7106,7 @@
         <v>5147470</v>
       </c>
       <c r="J141">
-        <v>3.759613946268749</v>
+        <v>3.75961394626875</v>
       </c>
       <c r="K141">
         <v>193525</v>
@@ -7741,7 +7741,7 @@
         <v>2408</v>
       </c>
       <c r="D155">
-        <v>729.485049833887</v>
+        <v>729.4850498338871</v>
       </c>
       <c r="E155">
         <v>1173</v>
